--- a/xlsx/中華人民共和國_intext.xlsx
+++ b/xlsx/中華人民共和國_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4412">
   <si>
     <t>中華人民共和國</t>
   </si>
@@ -29,7 +29,7 @@
     <t>中华人民共和国国旗</t>
   </si>
   <si>
-    <t>政策_政策_行政_中華人民共和國</t>
+    <t>体育运动_体育运动_奥林匹克运动会_中華人民共和國</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%BE%BD</t>
@@ -11634,6 +11634,12 @@
   </si>
   <si>
     <t>中華人民共和國文化部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%B0%94%E6%BB%A8%E5%9C%B0%E5%9B%BE%E5%87%BA%E7%89%88%E7%A4%BE</t>
+  </si>
+  <si>
+    <t>哈尔滨地图出版社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%A4%A7%E5%AD%A6%E5%87%BA%E7%89%88%E7%A4%BE</t>
@@ -13593,7 +13599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2379"/>
+  <dimension ref="A1:I2380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73822,7 +73828,7 @@
         <v>3910</v>
       </c>
       <c r="G2077" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2077" t="s">
         <v>4</v>
@@ -73851,7 +73857,7 @@
         <v>3912</v>
       </c>
       <c r="G2078" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2078" t="s">
         <v>4</v>
@@ -73938,7 +73944,7 @@
         <v>3918</v>
       </c>
       <c r="G2081" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2081" t="s">
         <v>4</v>
@@ -73967,7 +73973,7 @@
         <v>3920</v>
       </c>
       <c r="G2082" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2082" t="s">
         <v>4</v>
@@ -74048,13 +74054,13 @@
         <v>2084</v>
       </c>
       <c r="E2085" t="s">
-        <v>315</v>
+        <v>3925</v>
       </c>
       <c r="F2085" t="s">
-        <v>316</v>
+        <v>3926</v>
       </c>
       <c r="G2085" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2085" t="s">
         <v>4</v>
@@ -74077,10 +74083,10 @@
         <v>2085</v>
       </c>
       <c r="E2086" t="s">
-        <v>3925</v>
+        <v>315</v>
       </c>
       <c r="F2086" t="s">
-        <v>3926</v>
+        <v>316</v>
       </c>
       <c r="G2086" t="n">
         <v>2</v>
@@ -74106,10 +74112,10 @@
         <v>2086</v>
       </c>
       <c r="E2087" t="s">
-        <v>915</v>
+        <v>3927</v>
       </c>
       <c r="F2087" t="s">
-        <v>916</v>
+        <v>3928</v>
       </c>
       <c r="G2087" t="n">
         <v>2</v>
@@ -74135,13 +74141,13 @@
         <v>2087</v>
       </c>
       <c r="E2088" t="s">
-        <v>3927</v>
+        <v>915</v>
       </c>
       <c r="F2088" t="s">
-        <v>3928</v>
+        <v>916</v>
       </c>
       <c r="G2088" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H2088" t="s">
         <v>4</v>
@@ -74170,7 +74176,7 @@
         <v>3930</v>
       </c>
       <c r="G2089" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2089" t="s">
         <v>4</v>
@@ -74199,7 +74205,7 @@
         <v>3932</v>
       </c>
       <c r="G2090" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2090" t="s">
         <v>4</v>
@@ -74222,13 +74228,13 @@
         <v>2090</v>
       </c>
       <c r="E2091" t="s">
-        <v>333</v>
+        <v>3933</v>
       </c>
       <c r="F2091" t="s">
-        <v>334</v>
+        <v>3934</v>
       </c>
       <c r="G2091" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H2091" t="s">
         <v>4</v>
@@ -74251,13 +74257,13 @@
         <v>2091</v>
       </c>
       <c r="E2092" t="s">
-        <v>459</v>
+        <v>333</v>
       </c>
       <c r="F2092" t="s">
-        <v>460</v>
+        <v>334</v>
       </c>
       <c r="G2092" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H2092" t="s">
         <v>4</v>
@@ -74280,13 +74286,13 @@
         <v>2092</v>
       </c>
       <c r="E2093" t="s">
-        <v>315</v>
+        <v>459</v>
       </c>
       <c r="F2093" t="s">
-        <v>316</v>
+        <v>460</v>
       </c>
       <c r="G2093" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2093" t="s">
         <v>4</v>
@@ -74309,13 +74315,13 @@
         <v>2093</v>
       </c>
       <c r="E2094" t="s">
-        <v>3933</v>
+        <v>315</v>
       </c>
       <c r="F2094" t="s">
-        <v>3934</v>
+        <v>316</v>
       </c>
       <c r="G2094" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H2094" t="s">
         <v>4</v>
@@ -74344,7 +74350,7 @@
         <v>3936</v>
       </c>
       <c r="G2095" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H2095" t="s">
         <v>4</v>
@@ -74373,7 +74379,7 @@
         <v>3938</v>
       </c>
       <c r="G2096" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2096" t="s">
         <v>4</v>
@@ -74396,10 +74402,10 @@
         <v>2096</v>
       </c>
       <c r="E2097" t="s">
-        <v>191</v>
+        <v>3939</v>
       </c>
       <c r="F2097" t="s">
-        <v>192</v>
+        <v>3940</v>
       </c>
       <c r="G2097" t="n">
         <v>1</v>
@@ -74425,10 +74431,10 @@
         <v>2097</v>
       </c>
       <c r="E2098" t="s">
-        <v>3939</v>
+        <v>191</v>
       </c>
       <c r="F2098" t="s">
-        <v>3940</v>
+        <v>192</v>
       </c>
       <c r="G2098" t="n">
         <v>1</v>
@@ -74454,13 +74460,13 @@
         <v>2098</v>
       </c>
       <c r="E2099" t="s">
-        <v>1415</v>
+        <v>3941</v>
       </c>
       <c r="F2099" t="s">
-        <v>1416</v>
+        <v>3942</v>
       </c>
       <c r="G2099" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2099" t="s">
         <v>4</v>
@@ -74483,13 +74489,13 @@
         <v>2099</v>
       </c>
       <c r="E2100" t="s">
-        <v>3941</v>
+        <v>1415</v>
       </c>
       <c r="F2100" t="s">
-        <v>3942</v>
+        <v>1416</v>
       </c>
       <c r="G2100" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2100" t="s">
         <v>4</v>
@@ -74570,13 +74576,13 @@
         <v>2102</v>
       </c>
       <c r="E2103" t="s">
-        <v>1115</v>
+        <v>3947</v>
       </c>
       <c r="F2103" t="s">
-        <v>1116</v>
+        <v>3948</v>
       </c>
       <c r="G2103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2103" t="s">
         <v>4</v>
@@ -74599,13 +74605,13 @@
         <v>2103</v>
       </c>
       <c r="E2104" t="s">
-        <v>3947</v>
+        <v>1115</v>
       </c>
       <c r="F2104" t="s">
-        <v>3948</v>
+        <v>1116</v>
       </c>
       <c r="G2104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2104" t="s">
         <v>4</v>
@@ -74628,10 +74634,10 @@
         <v>2104</v>
       </c>
       <c r="E2105" t="s">
-        <v>1075</v>
+        <v>3949</v>
       </c>
       <c r="F2105" t="s">
-        <v>1076</v>
+        <v>3950</v>
       </c>
       <c r="G2105" t="n">
         <v>1</v>
@@ -74657,10 +74663,10 @@
         <v>2105</v>
       </c>
       <c r="E2106" t="s">
-        <v>3949</v>
+        <v>1075</v>
       </c>
       <c r="F2106" t="s">
-        <v>3950</v>
+        <v>1076</v>
       </c>
       <c r="G2106" t="n">
         <v>1</v>
@@ -74715,10 +74721,10 @@
         <v>2107</v>
       </c>
       <c r="E2108" t="s">
-        <v>1073</v>
+        <v>3953</v>
       </c>
       <c r="F2108" t="s">
-        <v>1074</v>
+        <v>3954</v>
       </c>
       <c r="G2108" t="n">
         <v>1</v>
@@ -74744,13 +74750,13 @@
         <v>2108</v>
       </c>
       <c r="E2109" t="s">
-        <v>3953</v>
+        <v>1073</v>
       </c>
       <c r="F2109" t="s">
-        <v>3954</v>
+        <v>1074</v>
       </c>
       <c r="G2109" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H2109" t="s">
         <v>4</v>
@@ -74779,7 +74785,7 @@
         <v>3956</v>
       </c>
       <c r="G2110" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="H2110" t="s">
         <v>4</v>
@@ -74808,7 +74814,7 @@
         <v>3958</v>
       </c>
       <c r="G2111" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="H2111" t="s">
         <v>4</v>
@@ -74837,7 +74843,7 @@
         <v>3960</v>
       </c>
       <c r="G2112" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="H2112" t="s">
         <v>4</v>
@@ -74866,7 +74872,7 @@
         <v>3962</v>
       </c>
       <c r="G2113" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="H2113" t="s">
         <v>4</v>
@@ -74889,10 +74895,10 @@
         <v>2113</v>
       </c>
       <c r="E2114" t="s">
-        <v>3245</v>
+        <v>3963</v>
       </c>
       <c r="F2114" t="s">
-        <v>3246</v>
+        <v>3964</v>
       </c>
       <c r="G2114" t="n">
         <v>1</v>
@@ -74918,13 +74924,13 @@
         <v>2114</v>
       </c>
       <c r="E2115" t="s">
-        <v>3963</v>
+        <v>3245</v>
       </c>
       <c r="F2115" t="s">
-        <v>3964</v>
+        <v>3246</v>
       </c>
       <c r="G2115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2115" t="s">
         <v>4</v>
@@ -74953,7 +74959,7 @@
         <v>3966</v>
       </c>
       <c r="G2116" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H2116" t="s">
         <v>4</v>
@@ -74976,13 +74982,13 @@
         <v>2116</v>
       </c>
       <c r="E2117" t="s">
-        <v>3253</v>
+        <v>3967</v>
       </c>
       <c r="F2117" t="s">
-        <v>3254</v>
+        <v>3968</v>
       </c>
       <c r="G2117" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H2117" t="s">
         <v>4</v>
@@ -75005,13 +75011,13 @@
         <v>2117</v>
       </c>
       <c r="E2118" t="s">
-        <v>3967</v>
+        <v>3253</v>
       </c>
       <c r="F2118" t="s">
-        <v>3968</v>
+        <v>3254</v>
       </c>
       <c r="G2118" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2118" t="s">
         <v>4</v>
@@ -75063,13 +75069,13 @@
         <v>2119</v>
       </c>
       <c r="E2120" t="s">
-        <v>301</v>
+        <v>3971</v>
       </c>
       <c r="F2120" t="s">
-        <v>302</v>
+        <v>3972</v>
       </c>
       <c r="G2120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2120" t="s">
         <v>4</v>
@@ -75092,13 +75098,13 @@
         <v>2120</v>
       </c>
       <c r="E2121" t="s">
-        <v>3971</v>
+        <v>301</v>
       </c>
       <c r="F2121" t="s">
-        <v>3972</v>
+        <v>302</v>
       </c>
       <c r="G2121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2121" t="s">
         <v>4</v>
@@ -75156,7 +75162,7 @@
         <v>3976</v>
       </c>
       <c r="G2123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2123" t="s">
         <v>4</v>
@@ -75185,7 +75191,7 @@
         <v>3978</v>
       </c>
       <c r="G2124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2124" t="s">
         <v>4</v>
@@ -75214,7 +75220,7 @@
         <v>3980</v>
       </c>
       <c r="G2125" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2125" t="s">
         <v>4</v>
@@ -75237,13 +75243,13 @@
         <v>2125</v>
       </c>
       <c r="E2126" t="s">
-        <v>1215</v>
+        <v>3981</v>
       </c>
       <c r="F2126" t="s">
-        <v>1216</v>
+        <v>3982</v>
       </c>
       <c r="G2126" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2126" t="s">
         <v>4</v>
@@ -75266,13 +75272,13 @@
         <v>2126</v>
       </c>
       <c r="E2127" t="s">
-        <v>217</v>
+        <v>1215</v>
       </c>
       <c r="F2127" t="s">
-        <v>218</v>
+        <v>1216</v>
       </c>
       <c r="G2127" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H2127" t="s">
         <v>4</v>
@@ -75295,13 +75301,13 @@
         <v>2127</v>
       </c>
       <c r="E2128" t="s">
-        <v>3981</v>
+        <v>217</v>
       </c>
       <c r="F2128" t="s">
-        <v>3982</v>
+        <v>218</v>
       </c>
       <c r="G2128" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="H2128" t="s">
         <v>4</v>
@@ -75330,7 +75336,7 @@
         <v>3984</v>
       </c>
       <c r="G2129" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2129" t="s">
         <v>4</v>
@@ -75353,10 +75359,10 @@
         <v>2129</v>
       </c>
       <c r="E2130" t="s">
-        <v>1217</v>
+        <v>3985</v>
       </c>
       <c r="F2130" t="s">
-        <v>1218</v>
+        <v>3986</v>
       </c>
       <c r="G2130" t="n">
         <v>4</v>
@@ -75382,13 +75388,13 @@
         <v>2130</v>
       </c>
       <c r="E2131" t="s">
-        <v>3985</v>
+        <v>1217</v>
       </c>
       <c r="F2131" t="s">
-        <v>3986</v>
+        <v>1218</v>
       </c>
       <c r="G2131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2131" t="s">
         <v>4</v>
@@ -75411,13 +75417,13 @@
         <v>2131</v>
       </c>
       <c r="E2132" t="s">
-        <v>1397</v>
+        <v>3987</v>
       </c>
       <c r="F2132" t="s">
-        <v>1398</v>
+        <v>3988</v>
       </c>
       <c r="G2132" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2132" t="s">
         <v>4</v>
@@ -75440,13 +75446,13 @@
         <v>2132</v>
       </c>
       <c r="E2133" t="s">
-        <v>3987</v>
+        <v>1397</v>
       </c>
       <c r="F2133" t="s">
-        <v>3988</v>
+        <v>1398</v>
       </c>
       <c r="G2133" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2133" t="s">
         <v>4</v>
@@ -75469,10 +75475,10 @@
         <v>2133</v>
       </c>
       <c r="E2134" t="s">
-        <v>275</v>
+        <v>3989</v>
       </c>
       <c r="F2134" t="s">
-        <v>276</v>
+        <v>3990</v>
       </c>
       <c r="G2134" t="n">
         <v>6</v>
@@ -75498,13 +75504,13 @@
         <v>2134</v>
       </c>
       <c r="E2135" t="s">
-        <v>3989</v>
+        <v>275</v>
       </c>
       <c r="F2135" t="s">
-        <v>3990</v>
+        <v>276</v>
       </c>
       <c r="G2135" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H2135" t="s">
         <v>4</v>
@@ -75527,13 +75533,13 @@
         <v>2135</v>
       </c>
       <c r="E2136" t="s">
-        <v>1311</v>
+        <v>3991</v>
       </c>
       <c r="F2136" t="s">
-        <v>1312</v>
+        <v>3992</v>
       </c>
       <c r="G2136" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H2136" t="s">
         <v>4</v>
@@ -75556,13 +75562,13 @@
         <v>2136</v>
       </c>
       <c r="E2137" t="s">
-        <v>3991</v>
+        <v>1311</v>
       </c>
       <c r="F2137" t="s">
-        <v>3992</v>
+        <v>1312</v>
       </c>
       <c r="G2137" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H2137" t="s">
         <v>4</v>
@@ -75620,7 +75626,7 @@
         <v>3996</v>
       </c>
       <c r="G2139" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2139" t="s">
         <v>4</v>
@@ -75649,7 +75655,7 @@
         <v>3998</v>
       </c>
       <c r="G2140" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H2140" t="s">
         <v>4</v>
@@ -75672,13 +75678,13 @@
         <v>2140</v>
       </c>
       <c r="E2141" t="s">
-        <v>1325</v>
+        <v>3999</v>
       </c>
       <c r="F2141" t="s">
-        <v>1326</v>
+        <v>4000</v>
       </c>
       <c r="G2141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2141" t="s">
         <v>4</v>
@@ -75701,13 +75707,13 @@
         <v>2141</v>
       </c>
       <c r="E2142" t="s">
-        <v>3999</v>
+        <v>1325</v>
       </c>
       <c r="F2142" t="s">
-        <v>4000</v>
+        <v>1326</v>
       </c>
       <c r="G2142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2142" t="s">
         <v>4</v>
@@ -75788,10 +75794,10 @@
         <v>2144</v>
       </c>
       <c r="E2145" t="s">
-        <v>2009</v>
+        <v>4005</v>
       </c>
       <c r="F2145" t="s">
-        <v>2010</v>
+        <v>4006</v>
       </c>
       <c r="G2145" t="n">
         <v>1</v>
@@ -75817,13 +75823,13 @@
         <v>2145</v>
       </c>
       <c r="E2146" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F2146" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G2146" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2146" t="s">
         <v>4</v>
@@ -75846,13 +75852,13 @@
         <v>2146</v>
       </c>
       <c r="E2147" t="s">
-        <v>3035</v>
+        <v>2011</v>
       </c>
       <c r="F2147" t="s">
-        <v>3036</v>
+        <v>2012</v>
       </c>
       <c r="G2147" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H2147" t="s">
         <v>4</v>
@@ -75875,13 +75881,13 @@
         <v>2147</v>
       </c>
       <c r="E2148" t="s">
-        <v>4005</v>
+        <v>3035</v>
       </c>
       <c r="F2148" t="s">
-        <v>4006</v>
+        <v>3036</v>
       </c>
       <c r="G2148" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H2148" t="s">
         <v>4</v>
@@ -75939,7 +75945,7 @@
         <v>4010</v>
       </c>
       <c r="G2150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2150" t="s">
         <v>4</v>
@@ -75962,13 +75968,13 @@
         <v>2150</v>
       </c>
       <c r="E2151" t="s">
-        <v>2167</v>
+        <v>4011</v>
       </c>
       <c r="F2151" t="s">
-        <v>2168</v>
+        <v>4012</v>
       </c>
       <c r="G2151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2151" t="s">
         <v>4</v>
@@ -75991,10 +75997,10 @@
         <v>2151</v>
       </c>
       <c r="E2152" t="s">
-        <v>4011</v>
+        <v>2167</v>
       </c>
       <c r="F2152" t="s">
-        <v>4012</v>
+        <v>2168</v>
       </c>
       <c r="G2152" t="n">
         <v>1</v>
@@ -76049,13 +76055,13 @@
         <v>2153</v>
       </c>
       <c r="E2154" t="s">
-        <v>2313</v>
+        <v>4015</v>
       </c>
       <c r="F2154" t="s">
-        <v>2314</v>
+        <v>4016</v>
       </c>
       <c r="G2154" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H2154" t="s">
         <v>4</v>
@@ -76078,13 +76084,13 @@
         <v>2154</v>
       </c>
       <c r="E2155" t="s">
-        <v>4015</v>
+        <v>2313</v>
       </c>
       <c r="F2155" t="s">
-        <v>4016</v>
+        <v>2314</v>
       </c>
       <c r="G2155" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H2155" t="s">
         <v>4</v>
@@ -76113,7 +76119,7 @@
         <v>4018</v>
       </c>
       <c r="G2156" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H2156" t="s">
         <v>4</v>
@@ -76136,13 +76142,13 @@
         <v>2156</v>
       </c>
       <c r="E2157" t="s">
-        <v>2361</v>
+        <v>4019</v>
       </c>
       <c r="F2157" t="s">
-        <v>2362</v>
+        <v>4020</v>
       </c>
       <c r="G2157" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H2157" t="s">
         <v>4</v>
@@ -76165,13 +76171,13 @@
         <v>2157</v>
       </c>
       <c r="E2158" t="s">
-        <v>255</v>
+        <v>2361</v>
       </c>
       <c r="F2158" t="s">
-        <v>256</v>
+        <v>2362</v>
       </c>
       <c r="G2158" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H2158" t="s">
         <v>4</v>
@@ -76194,13 +76200,13 @@
         <v>2158</v>
       </c>
       <c r="E2159" t="s">
-        <v>3223</v>
+        <v>255</v>
       </c>
       <c r="F2159" t="s">
-        <v>3224</v>
+        <v>256</v>
       </c>
       <c r="G2159" t="n">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="H2159" t="s">
         <v>4</v>
@@ -76223,13 +76229,13 @@
         <v>2159</v>
       </c>
       <c r="E2160" t="s">
-        <v>4019</v>
+        <v>3223</v>
       </c>
       <c r="F2160" t="s">
-        <v>4020</v>
+        <v>3224</v>
       </c>
       <c r="G2160" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="H2160" t="s">
         <v>4</v>
@@ -76252,13 +76258,13 @@
         <v>2160</v>
       </c>
       <c r="E2161" t="s">
-        <v>805</v>
+        <v>4021</v>
       </c>
       <c r="F2161" t="s">
-        <v>806</v>
+        <v>4022</v>
       </c>
       <c r="G2161" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H2161" t="s">
         <v>4</v>
@@ -76281,13 +76287,13 @@
         <v>2161</v>
       </c>
       <c r="E2162" t="s">
-        <v>4021</v>
+        <v>805</v>
       </c>
       <c r="F2162" t="s">
-        <v>4022</v>
+        <v>806</v>
       </c>
       <c r="G2162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2162" t="s">
         <v>4</v>
@@ -76316,7 +76322,7 @@
         <v>4024</v>
       </c>
       <c r="G2163" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2163" t="s">
         <v>4</v>
@@ -76339,13 +76345,13 @@
         <v>2163</v>
       </c>
       <c r="E2164" t="s">
-        <v>37</v>
+        <v>4025</v>
       </c>
       <c r="F2164" t="s">
-        <v>38</v>
+        <v>4026</v>
       </c>
       <c r="G2164" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H2164" t="s">
         <v>4</v>
@@ -76368,13 +76374,13 @@
         <v>2164</v>
       </c>
       <c r="E2165" t="s">
-        <v>4025</v>
+        <v>37</v>
       </c>
       <c r="F2165" t="s">
-        <v>4026</v>
+        <v>38</v>
       </c>
       <c r="G2165" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H2165" t="s">
         <v>4</v>
@@ -76432,7 +76438,7 @@
         <v>4030</v>
       </c>
       <c r="G2167" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2167" t="s">
         <v>4</v>
@@ -76461,7 +76467,7 @@
         <v>4032</v>
       </c>
       <c r="G2168" t="n">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H2168" t="s">
         <v>4</v>
@@ -76484,13 +76490,13 @@
         <v>2168</v>
       </c>
       <c r="E2169" t="s">
-        <v>2759</v>
+        <v>4033</v>
       </c>
       <c r="F2169" t="s">
-        <v>2760</v>
+        <v>4034</v>
       </c>
       <c r="G2169" t="n">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="H2169" t="s">
         <v>4</v>
@@ -76513,13 +76519,13 @@
         <v>2169</v>
       </c>
       <c r="E2170" t="s">
-        <v>4033</v>
+        <v>2759</v>
       </c>
       <c r="F2170" t="s">
-        <v>4034</v>
+        <v>2760</v>
       </c>
       <c r="G2170" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H2170" t="s">
         <v>4</v>
@@ -76548,7 +76554,7 @@
         <v>4036</v>
       </c>
       <c r="G2171" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2171" t="s">
         <v>4</v>
@@ -76571,13 +76577,13 @@
         <v>2171</v>
       </c>
       <c r="E2172" t="s">
-        <v>2781</v>
+        <v>4037</v>
       </c>
       <c r="F2172" t="s">
-        <v>2782</v>
+        <v>4038</v>
       </c>
       <c r="G2172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2172" t="s">
         <v>4</v>
@@ -76600,13 +76606,13 @@
         <v>2172</v>
       </c>
       <c r="E2173" t="s">
-        <v>2519</v>
+        <v>2781</v>
       </c>
       <c r="F2173" t="s">
-        <v>2520</v>
+        <v>2782</v>
       </c>
       <c r="G2173" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="H2173" t="s">
         <v>4</v>
@@ -76629,13 +76635,13 @@
         <v>2173</v>
       </c>
       <c r="E2174" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
       <c r="F2174" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="G2174" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="H2174" t="s">
         <v>4</v>
@@ -76658,13 +76664,13 @@
         <v>2174</v>
       </c>
       <c r="E2175" t="s">
-        <v>4037</v>
+        <v>2521</v>
       </c>
       <c r="F2175" t="s">
-        <v>4038</v>
+        <v>2522</v>
       </c>
       <c r="G2175" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2175" t="s">
         <v>4</v>
@@ -76687,13 +76693,13 @@
         <v>2175</v>
       </c>
       <c r="E2176" t="s">
-        <v>2659</v>
+        <v>4039</v>
       </c>
       <c r="F2176" t="s">
-        <v>2660</v>
+        <v>4040</v>
       </c>
       <c r="G2176" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2176" t="s">
         <v>4</v>
@@ -76716,13 +76722,13 @@
         <v>2176</v>
       </c>
       <c r="E2177" t="s">
-        <v>2667</v>
+        <v>2659</v>
       </c>
       <c r="F2177" t="s">
-        <v>2668</v>
+        <v>2660</v>
       </c>
       <c r="G2177" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2177" t="s">
         <v>4</v>
@@ -76745,10 +76751,10 @@
         <v>2177</v>
       </c>
       <c r="E2178" t="s">
-        <v>2037</v>
+        <v>2667</v>
       </c>
       <c r="F2178" t="s">
-        <v>2038</v>
+        <v>2668</v>
       </c>
       <c r="G2178" t="n">
         <v>1</v>
@@ -76774,10 +76780,10 @@
         <v>2178</v>
       </c>
       <c r="E2179" t="s">
-        <v>4039</v>
+        <v>2037</v>
       </c>
       <c r="F2179" t="s">
-        <v>4040</v>
+        <v>2038</v>
       </c>
       <c r="G2179" t="n">
         <v>1</v>
@@ -76832,13 +76838,13 @@
         <v>2180</v>
       </c>
       <c r="E2181" t="s">
-        <v>465</v>
+        <v>4043</v>
       </c>
       <c r="F2181" t="s">
-        <v>466</v>
+        <v>4044</v>
       </c>
       <c r="G2181" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2181" t="s">
         <v>4</v>
@@ -76861,13 +76867,13 @@
         <v>2181</v>
       </c>
       <c r="E2182" t="s">
-        <v>3165</v>
+        <v>465</v>
       </c>
       <c r="F2182" t="s">
-        <v>3166</v>
+        <v>466</v>
       </c>
       <c r="G2182" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2182" t="s">
         <v>4</v>
@@ -76890,13 +76896,13 @@
         <v>2182</v>
       </c>
       <c r="E2183" t="s">
-        <v>4043</v>
+        <v>3165</v>
       </c>
       <c r="F2183" t="s">
-        <v>4044</v>
+        <v>3166</v>
       </c>
       <c r="G2183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2183" t="s">
         <v>4</v>
@@ -76925,7 +76931,7 @@
         <v>4046</v>
       </c>
       <c r="G2184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2184" t="s">
         <v>4</v>
@@ -76948,13 +76954,13 @@
         <v>2184</v>
       </c>
       <c r="E2185" t="s">
-        <v>2637</v>
+        <v>4047</v>
       </c>
       <c r="F2185" t="s">
-        <v>2638</v>
+        <v>4048</v>
       </c>
       <c r="G2185" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2185" t="s">
         <v>4</v>
@@ -76977,13 +76983,13 @@
         <v>2185</v>
       </c>
       <c r="E2186" t="s">
-        <v>121</v>
+        <v>2637</v>
       </c>
       <c r="F2186" t="s">
-        <v>122</v>
+        <v>2638</v>
       </c>
       <c r="G2186" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2186" t="s">
         <v>4</v>
@@ -77006,13 +77012,13 @@
         <v>2186</v>
       </c>
       <c r="E2187" t="s">
-        <v>4047</v>
+        <v>121</v>
       </c>
       <c r="F2187" t="s">
-        <v>4048</v>
+        <v>122</v>
       </c>
       <c r="G2187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2187" t="s">
         <v>4</v>
@@ -77041,7 +77047,7 @@
         <v>4050</v>
       </c>
       <c r="G2188" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H2188" t="s">
         <v>4</v>
@@ -77064,13 +77070,13 @@
         <v>2188</v>
       </c>
       <c r="E2189" t="s">
-        <v>467</v>
+        <v>4051</v>
       </c>
       <c r="F2189" t="s">
-        <v>468</v>
+        <v>4052</v>
       </c>
       <c r="G2189" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H2189" t="s">
         <v>4</v>
@@ -77093,13 +77099,13 @@
         <v>2189</v>
       </c>
       <c r="E2190" t="s">
-        <v>4051</v>
+        <v>467</v>
       </c>
       <c r="F2190" t="s">
-        <v>4052</v>
+        <v>468</v>
       </c>
       <c r="G2190" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2190" t="s">
         <v>4</v>
@@ -77128,7 +77134,7 @@
         <v>4054</v>
       </c>
       <c r="G2191" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H2191" t="s">
         <v>4</v>
@@ -77157,7 +77163,7 @@
         <v>4056</v>
       </c>
       <c r="G2192" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H2192" t="s">
         <v>4</v>
@@ -77180,13 +77186,13 @@
         <v>2192</v>
       </c>
       <c r="E2193" t="s">
-        <v>2693</v>
+        <v>4057</v>
       </c>
       <c r="F2193" t="s">
-        <v>2694</v>
+        <v>4058</v>
       </c>
       <c r="G2193" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2193" t="s">
         <v>4</v>
@@ -77209,13 +77215,13 @@
         <v>2193</v>
       </c>
       <c r="E2194" t="s">
-        <v>4057</v>
+        <v>2693</v>
       </c>
       <c r="F2194" t="s">
-        <v>4058</v>
+        <v>2694</v>
       </c>
       <c r="G2194" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H2194" t="s">
         <v>4</v>
@@ -77244,7 +77250,7 @@
         <v>4060</v>
       </c>
       <c r="G2195" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2195" t="s">
         <v>4</v>
@@ -77273,7 +77279,7 @@
         <v>4062</v>
       </c>
       <c r="G2196" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2196" t="s">
         <v>4</v>
@@ -77325,13 +77331,13 @@
         <v>2197</v>
       </c>
       <c r="E2198" t="s">
-        <v>3089</v>
+        <v>4065</v>
       </c>
       <c r="F2198" t="s">
-        <v>3090</v>
+        <v>4066</v>
       </c>
       <c r="G2198" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H2198" t="s">
         <v>4</v>
@@ -77354,13 +77360,13 @@
         <v>2198</v>
       </c>
       <c r="E2199" t="s">
-        <v>4065</v>
+        <v>3089</v>
       </c>
       <c r="F2199" t="s">
-        <v>4066</v>
+        <v>3090</v>
       </c>
       <c r="G2199" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H2199" t="s">
         <v>4</v>
@@ -77505,7 +77511,7 @@
         <v>4076</v>
       </c>
       <c r="G2204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2204" t="s">
         <v>4</v>
@@ -77563,7 +77569,7 @@
         <v>4080</v>
       </c>
       <c r="G2206" t="n">
-        <v>187</v>
+        <v>2</v>
       </c>
       <c r="H2206" t="s">
         <v>4</v>
@@ -77592,7 +77598,7 @@
         <v>4082</v>
       </c>
       <c r="G2207" t="n">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="H2207" t="s">
         <v>4</v>
@@ -77615,13 +77621,13 @@
         <v>2207</v>
       </c>
       <c r="E2208" t="s">
-        <v>651</v>
+        <v>4083</v>
       </c>
       <c r="F2208" t="s">
-        <v>652</v>
+        <v>4084</v>
       </c>
       <c r="G2208" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2208" t="s">
         <v>4</v>
@@ -77673,13 +77679,13 @@
         <v>2209</v>
       </c>
       <c r="E2210" t="s">
-        <v>4083</v>
+        <v>651</v>
       </c>
       <c r="F2210" t="s">
-        <v>4084</v>
+        <v>652</v>
       </c>
       <c r="G2210" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H2210" t="s">
         <v>4</v>
@@ -77708,7 +77714,7 @@
         <v>4086</v>
       </c>
       <c r="G2211" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H2211" t="s">
         <v>4</v>
@@ -77737,7 +77743,7 @@
         <v>4088</v>
       </c>
       <c r="G2212" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H2212" t="s">
         <v>4</v>
@@ -77760,13 +77766,13 @@
         <v>2212</v>
       </c>
       <c r="E2213" t="s">
-        <v>1545</v>
+        <v>4089</v>
       </c>
       <c r="F2213" t="s">
-        <v>1546</v>
+        <v>4090</v>
       </c>
       <c r="G2213" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H2213" t="s">
         <v>4</v>
@@ -77789,13 +77795,13 @@
         <v>2213</v>
       </c>
       <c r="E2214" t="s">
-        <v>4089</v>
+        <v>1545</v>
       </c>
       <c r="F2214" t="s">
-        <v>4090</v>
+        <v>1546</v>
       </c>
       <c r="G2214" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2214" t="s">
         <v>4</v>
@@ -77824,7 +77830,7 @@
         <v>4092</v>
       </c>
       <c r="G2215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2215" t="s">
         <v>4</v>
@@ -77853,7 +77859,7 @@
         <v>4094</v>
       </c>
       <c r="G2216" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H2216" t="s">
         <v>4</v>
@@ -77882,7 +77888,7 @@
         <v>4096</v>
       </c>
       <c r="G2217" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H2217" t="s">
         <v>4</v>
@@ -77969,7 +77975,7 @@
         <v>4102</v>
       </c>
       <c r="G2220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2220" t="s">
         <v>4</v>
@@ -77998,7 +78004,7 @@
         <v>4104</v>
       </c>
       <c r="G2221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2221" t="s">
         <v>4</v>
@@ -78137,10 +78143,10 @@
         <v>2225</v>
       </c>
       <c r="E2226" t="s">
-        <v>621</v>
+        <v>4113</v>
       </c>
       <c r="F2226" t="s">
-        <v>622</v>
+        <v>4114</v>
       </c>
       <c r="G2226" t="n">
         <v>1</v>
@@ -78166,10 +78172,10 @@
         <v>2226</v>
       </c>
       <c r="E2227" t="s">
-        <v>4113</v>
+        <v>621</v>
       </c>
       <c r="F2227" t="s">
-        <v>4114</v>
+        <v>622</v>
       </c>
       <c r="G2227" t="n">
         <v>1</v>
@@ -78340,13 +78346,13 @@
         <v>2232</v>
       </c>
       <c r="E2233" t="s">
-        <v>3275</v>
+        <v>4125</v>
       </c>
       <c r="F2233" t="s">
-        <v>3276</v>
+        <v>4126</v>
       </c>
       <c r="G2233" t="n">
-        <v>319</v>
+        <v>1</v>
       </c>
       <c r="H2233" t="s">
         <v>4</v>
@@ -78369,13 +78375,13 @@
         <v>2233</v>
       </c>
       <c r="E2234" t="s">
-        <v>4125</v>
+        <v>3275</v>
       </c>
       <c r="F2234" t="s">
-        <v>4126</v>
+        <v>3276</v>
       </c>
       <c r="G2234" t="n">
-        <v>24</v>
+        <v>319</v>
       </c>
       <c r="H2234" t="s">
         <v>4</v>
@@ -78398,13 +78404,13 @@
         <v>2234</v>
       </c>
       <c r="E2235" t="s">
-        <v>933</v>
+        <v>4127</v>
       </c>
       <c r="F2235" t="s">
-        <v>934</v>
+        <v>4128</v>
       </c>
       <c r="G2235" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H2235" t="s">
         <v>4</v>
@@ -78427,10 +78433,10 @@
         <v>2235</v>
       </c>
       <c r="E2236" t="s">
-        <v>4127</v>
+        <v>933</v>
       </c>
       <c r="F2236" t="s">
-        <v>4128</v>
+        <v>934</v>
       </c>
       <c r="G2236" t="n">
         <v>4</v>
@@ -78462,7 +78468,7 @@
         <v>4130</v>
       </c>
       <c r="G2237" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H2237" t="s">
         <v>4</v>
@@ -78549,7 +78555,7 @@
         <v>4136</v>
       </c>
       <c r="G2240" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2240" t="s">
         <v>4</v>
@@ -78578,7 +78584,7 @@
         <v>4138</v>
       </c>
       <c r="G2241" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2241" t="s">
         <v>4</v>
@@ -78607,7 +78613,7 @@
         <v>4140</v>
       </c>
       <c r="G2242" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2242" t="s">
         <v>4</v>
@@ -79303,7 +79309,7 @@
         <v>4188</v>
       </c>
       <c r="G2266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2266" t="s">
         <v>4</v>
@@ -79332,7 +79338,7 @@
         <v>4190</v>
       </c>
       <c r="G2267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2267" t="s">
         <v>4</v>
@@ -79941,7 +79947,7 @@
         <v>4232</v>
       </c>
       <c r="G2288" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2288" t="s">
         <v>4</v>
@@ -79970,7 +79976,7 @@
         <v>4234</v>
       </c>
       <c r="G2289" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2289" t="s">
         <v>4</v>
@@ -80550,7 +80556,7 @@
         <v>4274</v>
       </c>
       <c r="G2309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2309" t="s">
         <v>4</v>
@@ -80608,7 +80614,7 @@
         <v>4278</v>
       </c>
       <c r="G2311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2311" t="s">
         <v>4</v>
@@ -80666,7 +80672,7 @@
         <v>4282</v>
       </c>
       <c r="G2313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2313" t="s">
         <v>4</v>
@@ -80695,7 +80701,7 @@
         <v>4284</v>
       </c>
       <c r="G2314" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H2314" t="s">
         <v>4</v>
@@ -80724,7 +80730,7 @@
         <v>4286</v>
       </c>
       <c r="G2315" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H2315" t="s">
         <v>4</v>
@@ -80782,7 +80788,7 @@
         <v>4290</v>
       </c>
       <c r="G2317" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2317" t="s">
         <v>4</v>
@@ -80811,7 +80817,7 @@
         <v>4292</v>
       </c>
       <c r="G2318" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2318" t="s">
         <v>4</v>
@@ -80898,7 +80904,7 @@
         <v>4298</v>
       </c>
       <c r="G2321" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H2321" t="s">
         <v>4</v>
@@ -80927,7 +80933,7 @@
         <v>4300</v>
       </c>
       <c r="G2322" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H2322" t="s">
         <v>4</v>
@@ -81072,7 +81078,7 @@
         <v>4310</v>
       </c>
       <c r="G2327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2327" t="s">
         <v>4</v>
@@ -81101,7 +81107,7 @@
         <v>4312</v>
       </c>
       <c r="G2328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2328" t="s">
         <v>4</v>
@@ -81124,10 +81130,10 @@
         <v>2328</v>
       </c>
       <c r="E2329" t="s">
-        <v>4127</v>
+        <v>4313</v>
       </c>
       <c r="F2329" t="s">
-        <v>4128</v>
+        <v>4314</v>
       </c>
       <c r="G2329" t="n">
         <v>1</v>
@@ -81153,10 +81159,10 @@
         <v>2329</v>
       </c>
       <c r="E2330" t="s">
-        <v>4313</v>
+        <v>4129</v>
       </c>
       <c r="F2330" t="s">
-        <v>4314</v>
+        <v>4130</v>
       </c>
       <c r="G2330" t="n">
         <v>1</v>
@@ -81855,7 +81861,7 @@
         <v>4362</v>
       </c>
       <c r="G2354" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2354" t="s">
         <v>4</v>
@@ -81884,7 +81890,7 @@
         <v>4364</v>
       </c>
       <c r="G2355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2355" t="s">
         <v>4</v>
@@ -81942,7 +81948,7 @@
         <v>4368</v>
       </c>
       <c r="G2357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2357" t="s">
         <v>4</v>
@@ -81971,7 +81977,7 @@
         <v>4370</v>
       </c>
       <c r="G2358" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2358" t="s">
         <v>4</v>
@@ -82058,7 +82064,7 @@
         <v>4376</v>
       </c>
       <c r="G2361" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2361" t="s">
         <v>4</v>
@@ -82145,7 +82151,7 @@
         <v>4382</v>
       </c>
       <c r="G2364" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2364" t="s">
         <v>4</v>
@@ -82284,10 +82290,10 @@
         <v>2368</v>
       </c>
       <c r="E2369" t="s">
-        <v>3223</v>
+        <v>4391</v>
       </c>
       <c r="F2369" t="s">
-        <v>3224</v>
+        <v>4392</v>
       </c>
       <c r="G2369" t="n">
         <v>1</v>
@@ -82313,10 +82319,10 @@
         <v>2369</v>
       </c>
       <c r="E2370" t="s">
-        <v>4391</v>
+        <v>3223</v>
       </c>
       <c r="F2370" t="s">
-        <v>4392</v>
+        <v>3224</v>
       </c>
       <c r="G2370" t="n">
         <v>1</v>
@@ -82377,7 +82383,7 @@
         <v>4396</v>
       </c>
       <c r="G2372" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2372" t="s">
         <v>4</v>
@@ -82406,7 +82412,7 @@
         <v>4398</v>
       </c>
       <c r="G2373" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2373" t="s">
         <v>4</v>
@@ -82522,7 +82528,7 @@
         <v>4406</v>
       </c>
       <c r="G2377" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="H2377" t="s">
         <v>4</v>
@@ -82545,13 +82551,13 @@
         <v>2377</v>
       </c>
       <c r="E2378" t="s">
-        <v>4405</v>
+        <v>4407</v>
       </c>
       <c r="F2378" t="s">
-        <v>4407</v>
+        <v>4408</v>
       </c>
       <c r="G2378" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="H2378" t="s">
         <v>4</v>
@@ -82574,18 +82580,47 @@
         <v>2378</v>
       </c>
       <c r="E2379" t="s">
-        <v>4408</v>
+        <v>4407</v>
       </c>
       <c r="F2379" t="s">
         <v>4409</v>
       </c>
       <c r="G2379" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2379" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2379" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:9">
+      <c r="A2380" s="1" t="n">
+        <v>2378</v>
+      </c>
+      <c r="B2380" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2380" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2380" t="n">
+        <v>2379</v>
+      </c>
+      <c r="E2380" t="s">
+        <v>4410</v>
+      </c>
+      <c r="F2380" t="s">
+        <v>4411</v>
+      </c>
+      <c r="G2380" t="n">
         <v>2</v>
       </c>
-      <c r="H2379" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2379" t="n">
+      <c r="H2380" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2380" t="n">
         <v>3</v>
       </c>
     </row>
